--- a/biology/Zoologie/Elachistocleis_bicolor/Elachistocleis_bicolor.xlsx
+++ b/biology/Zoologie/Elachistocleis_bicolor/Elachistocleis_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis bicolor est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis bicolor est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine, dans le sud-est du Brésil, au Paraguay et en Uruguay. Elle est présente du niveau de la mer jusqu'à 200 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine, dans le sud-est du Brésil, au Paraguay et en Uruguay. Elle est présente du niveau de la mer jusqu'à 200 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis bicolor, comme son nom l'indique, présente une coloration contrastée entre son dos, brunâtre, et son ventre, jaune. Cette particularité est à l'origine de son nom vernaculaire anglais, Rana Pinguino[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis bicolor, comme son nom l'indique, présente une coloration contrastée entre son dos, brunâtre, et son ventre, jaune. Cette particularité est à l'origine de son nom vernaculaire anglais, Rana Pinguino.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guérin-Méneville, 1838 : Iconographie du Règne animal de G. Cuvier. vol. 3, p. 1-64.
 Miranda-Ribeiro, 1920 : Os engystomatideos do Museu Paulista (com um genero e tres especies novos). Revista do Museu Paulista, vol. 12, p. 281-288 (texte intégral).</t>
